--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FD318-E579-4A0D-8586-FF0BB5ACC3B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BC23778-843B-408E-8AB4-E077F058CE02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="2484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,10 +29,10 @@
     <t>demo</t>
   </si>
   <si>
-    <t>validuname</t>
+    <t>santhi.asusvivobook@gmail.com</t>
   </si>
   <si>
-    <t>validpwd</t>
+    <t>santhi_asusvivobook</t>
   </si>
 </sst>
 </file>
@@ -363,7 +364,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,10 +389,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="santhiparambalam@gmail.com" xr:uid="{9F090268-5D31-4882-82D4-46A2B6F5CDA8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BC23778-843B-408E-8AB4-E077F058CE02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF3970-EB2C-4BE6-BF19-1DB7B54D90B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="2484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>santhi.asusvivobook@gmail.com</t>
   </si>
   <si>
-    <t>santhi_asusvivobook</t>
+    <t>automation123</t>
   </si>
 </sst>
 </file>
@@ -64,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,14 +65,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -361,31 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF3970-EB2C-4BE6-BF19-1DB7B54D90B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C387A6-AD6B-44D1-BC6C-8ECB1958E6CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,12 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>santhi.asusvivobook@gmail.com</t>
   </si>
   <si>
     <t>automation123</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>santhi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -49,12 +62,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -85,10 +104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,10 +404,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -394,4 +423,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FDE52-5B44-487F-9DB6-CE955C56DA31}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{67199CB4-54AC-4304-B216-9250E16A77EA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{BC958A29-4AD9-46A1-B0A2-27675B9E6E45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>